--- a/HealthcareSolutions.suite/Resources/HDREG-1.xlsx
+++ b/HealthcareSolutions.suite/Resources/HDREG-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\Eggplant\WVUMed.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\HealthcareSolutions\HealthcareSolutions.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC715F-8483-45FE-A82A-B648A1416174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C05B47-85CF-4047-A36E-17C703BF057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120"/>
   </bookViews>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="422">
   <si>
     <t>RecNumber</t>
   </si>
@@ -1522,33 +1522,15 @@
     <t>11011999</t>
   </si>
   <si>
-    <t>E33009052</t>
-  </si>
-  <si>
-    <t>E33008994</t>
-  </si>
-  <si>
-    <t>E33008993</t>
-  </si>
-  <si>
     <t>11011990</t>
   </si>
   <si>
-    <t>E33008978</t>
-  </si>
-  <si>
     <t>100096</t>
   </si>
   <si>
     <t>11012009</t>
   </si>
   <si>
-    <t>E33009272</t>
-  </si>
-  <si>
-    <t>E33009299</t>
-  </si>
-  <si>
     <t>InsuranceID_Type</t>
   </si>
   <si>
@@ -1558,31 +1540,13 @@
     <t>Recipient Number</t>
   </si>
   <si>
-    <t>E33009300</t>
-  </si>
-  <si>
     <t>United Healthcare</t>
   </si>
   <si>
-    <t>E33009301</t>
-  </si>
-  <si>
-    <t>E33009302</t>
-  </si>
-  <si>
-    <t>E33009303</t>
-  </si>
-  <si>
-    <t>E33009304</t>
-  </si>
-  <si>
-    <t>E33009305</t>
-  </si>
-  <si>
     <t>Blue Cross</t>
   </si>
   <si>
-    <t>E33009306</t>
+    <t>361636</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2040,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1:AS1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2272,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AV1" s="2" t="s">
         <v>24</v>
@@ -2295,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C32" si="0">CONCATENATE(E2,", ",D2)</f>
@@ -2420,7 +2384,7 @@
         <v>294</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT2" s="3">
         <v>1652</v>
@@ -2437,13 +2401,13 @@
       <c r="AY2" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="AZ2" s="5" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="3" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2456,7 +2420,7 @@
         <v>88</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
@@ -2596,9 +2560,6 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Jackson</v>
@@ -2610,7 +2571,7 @@
         <v>88</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -2722,7 +2683,7 @@
         <v>294</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT4" s="3">
         <v>1402</v>
@@ -2744,9 +2705,6 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Emma</v>
@@ -2758,7 +2716,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -2876,7 +2834,7 @@
         <v>360</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT5" s="3">
         <v>1652</v>
@@ -2984,7 +2942,7 @@
         <v>354</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>38</v>
@@ -3039,9 +2997,6 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Olivia</v>
@@ -3053,7 +3008,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -3161,7 +3116,7 @@
         <v>360</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT7" s="3">
         <v>1402</v>
@@ -3194,7 +3149,7 @@
         <v>88</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
@@ -3302,13 +3257,13 @@
         <v>294</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT8" s="3">
         <v>1652</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV8" s="3" t="s">
         <v>410</v>
@@ -3330,9 +3285,6 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Isabella</v>
@@ -3344,7 +3296,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>25</v>
@@ -3458,7 +3410,7 @@
         <v>1546</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AV9" s="3">
         <v>98523601207</v>
@@ -3480,9 +3432,6 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Mason</v>
@@ -3494,7 +3443,7 @@
         <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>17</v>
@@ -3602,13 +3551,13 @@
         <v>294</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT10" s="3">
         <v>1402</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV10" s="3" t="s">
         <v>367</v>
@@ -3630,9 +3579,6 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Ava</v>
@@ -3644,7 +3590,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>25</v>
@@ -3752,13 +3698,13 @@
         <v>360</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT11" s="3">
         <v>1652</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV11" s="3" t="s">
         <v>410</v>
@@ -3780,9 +3726,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Noah</v>
@@ -3794,7 +3738,7 @@
         <v>88</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>17</v>
@@ -3908,7 +3852,7 @@
         <v>1546</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AV12" s="3">
         <v>98523601207</v>
@@ -3930,9 +3874,6 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Lily</v>
@@ -3944,7 +3885,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>25</v>
@@ -4052,13 +3993,13 @@
         <v>360</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT13" s="3">
         <v>1402</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV13" s="3" t="s">
         <v>367</v>
@@ -4080,9 +4021,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>430</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Michael</v>
@@ -4094,7 +4033,7 @@
         <v>88</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -4202,13 +4141,13 @@
         <v>294</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT14" s="3">
         <v>1652</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV14" s="3" t="s">
         <v>410</v>
@@ -4230,9 +4169,6 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Jessica</v>
@@ -4356,13 +4292,13 @@
         <v>294</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT15" s="3">
         <v>1652</v>
       </c>
       <c r="AU15" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AV15" s="3" t="s">
         <v>410</v>
@@ -4384,9 +4320,6 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Eggplant, Christopher</v>
@@ -4522,7 +4455,7 @@
         <v>1546</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AV16" s="3">
         <v>98523601207</v>
@@ -4667,7 +4600,7 @@
         <v>294</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT17" s="3">
         <v>1402</v>
@@ -4818,7 +4751,7 @@
         <v>360</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT18" s="3">
         <v>1652</v>
@@ -5114,7 +5047,7 @@
         <v>360</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT20" s="3">
         <v>1402</v>
@@ -5259,7 +5192,7 @@
         <v>294</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT21" s="3">
         <v>1652</v>
@@ -5555,7 +5488,7 @@
         <v>294</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT23" s="3">
         <v>1402</v>
@@ -5706,7 +5639,7 @@
         <v>360</v>
       </c>
       <c r="AS24" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT24" s="3">
         <v>1652</v>
@@ -6002,7 +5935,7 @@
         <v>360</v>
       </c>
       <c r="AS26" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AT26" s="3">
         <v>1402</v>
@@ -6105,7 +6038,7 @@
         <v>294</v>
       </c>
       <c r="AS27" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AT27" s="3">
         <v>1652</v>
@@ -11077,6 +11010,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E033184CEB11F648BBD0F70F1BE6A53E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6772e668bd11b5d68af2caf9f3d3ff0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a44a327f-4c77-4059-bb07-e278862d87fb" xmlns:ns4="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1370a7ae997dfead2b2ac8f1c36ed42" ns3:_="" ns4:_="">
     <xsd:import namespace="a44a327f-4c77-4059-bb07-e278862d87fb"/>
@@ -11299,36 +11247,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BE07B4-EAD3-43BB-A412-78B98636CC41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA715A9A-50E5-49B3-81AC-118F4B5A14E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a44a327f-4c77-4059-bb07-e278862d87fb"/>
-    <ds:schemaRef ds:uri="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11351,9 +11273,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA715A9A-50E5-49B3-81AC-118F4B5A14E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BE07B4-EAD3-43BB-A412-78B98636CC41}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a44a327f-4c77-4059-bb07-e278862d87fb"/>
+    <ds:schemaRef ds:uri="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/HealthcareSolutions.suite/Resources/HDREG-1.xlsx
+++ b/HealthcareSolutions.suite/Resources/HDREG-1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\HealthcareSolutions\HealthcareSolutions.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C05B47-85CF-4047-A36E-17C703BF057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF73597-BB71-4763-B9BF-B7438D1C45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
-    <sheet name="New" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="New" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">New!$A$1:$AK$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">New!$A$1:$AK$124</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1592,7 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,13 +1621,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2036,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2045,58 +2048,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" style="3" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="10.61328125" style="5" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="18.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="10.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="8.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="7" style="3" bestFit="true" customWidth="true"/>
-    <col min="8" max="10" width="7" style="3" customWidth="true"/>
-    <col min="11" max="11" width="9.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="17.3046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="7.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="11.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="12" style="3" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="21.15234375" style="3" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="14.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="15.23046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="8.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="12.3046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="12.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="15.765625" style="3" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="12.61328125" style="3" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="33.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="13.23046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="16.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="27" max="27" width="7.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="28" max="28" width="19.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="29" max="29" width="8.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="30" max="30" width="13.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="31" max="31" width="4.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="32" max="32" width="32.61328125" style="3" bestFit="true" customWidth="true"/>
-    <col min="33" max="33" width="6.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="34" max="34" width="21.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="35" max="36" width="27" style="3" bestFit="true" customWidth="true"/>
-    <col min="37" max="37" width="21.23046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="38" max="38" width="19.921875" style="3" bestFit="true" customWidth="true"/>
-    <col min="39" max="39" width="14.765625" style="3" bestFit="true" customWidth="true"/>
-    <col min="40" max="40" width="22.765625" style="3" bestFit="true" customWidth="true"/>
-    <col min="41" max="41" width="26.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="42" max="42" width="17.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="43" max="43" width="25.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="44" max="44" width="26.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="45" max="45" width="17.61328125" style="3" bestFit="true" customWidth="true"/>
-    <col min="46" max="46" width="12.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="47" max="47" width="15.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="48" max="48" width="13" style="3" bestFit="true" customWidth="true"/>
-    <col min="49" max="49" width="21.15234375" style="3" bestFit="true" customWidth="true"/>
-    <col min="50" max="50" width="21.15234375" style="3" customWidth="true"/>
-    <col min="51" max="51" width="23.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="52" max="52" width="6.921875" style="5" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="32.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.15234375" style="3" customWidth="1"/>
+    <col min="51" max="51" width="23.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.921875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7161,7 +7164,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -7594,6 +7597,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBB9F2-8D7A-4165-961E-4CD41274F703}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701B23F-DA41-4F48-B4AF-4C926B2F5894}">
   <dimension ref="A1:AK124"/>
   <sheetViews>
@@ -7606,46 +7623,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" style="3" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="9.69140625" style="5" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="17.61328125" style="3" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.23046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="10.921875" style="3" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="8.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="8.921875" style="3" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="9.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="14.15234375" style="3" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="9.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="12.921875" style="3" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="13.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="20.15234375" style="3" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="17.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="16.23046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="13.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="8.3828125" style="3" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="14.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="16.3046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="21.15234375" style="3" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="18.3828125" style="3" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="10" style="3" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="26.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="2.69140625" style="3" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="6.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="23.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="27" max="27" width="28.4609375" style="3" bestFit="true" customWidth="true"/>
-    <col min="28" max="28" width="20" style="3" bestFit="true" customWidth="true"/>
-    <col min="29" max="29" width="21.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="30" max="30" width="16.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="31" max="31" width="24.3828125" style="3" bestFit="true" customWidth="true"/>
-    <col min="32" max="32" width="19.07421875" style="3" bestFit="true" customWidth="true"/>
-    <col min="33" max="33" width="26.84375" style="3" bestFit="true" customWidth="true"/>
-    <col min="34" max="34" width="22.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="35" max="35" width="14.3046875" style="3" bestFit="true" customWidth="true"/>
-    <col min="36" max="36" width="12.53515625" style="3" bestFit="true" customWidth="true"/>
-    <col min="37" max="37" width="8.765625" style="5" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="12.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7756,7 +7773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7849,7 +7866,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7945,7 +7962,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8059,7 +8076,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8155,7 +8172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8269,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8368,7 +8385,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8464,7 +8481,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8554,7 +8571,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8644,7 +8661,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8719,7 +8736,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8789,7 +8806,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8858,7 +8875,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8913,7 +8930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8967,7 +8984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9021,7 +9038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9075,7 +9092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9123,7 +9140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9165,7 +9182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9207,7 +9224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9249,7 +9266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -9291,7 +9308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -9333,7 +9350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -9384,7 +9401,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -9435,7 +9452,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9537,7 +9554,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -9597,7 +9614,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -9657,7 +9674,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -9717,7 +9734,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -9777,7 +9794,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -9837,7 +9854,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9897,7 +9914,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9957,7 +9974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10017,7 +10034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10077,7 +10094,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10137,7 +10154,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10194,7 +10211,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10251,7 +10268,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10308,7 +10325,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10365,7 +10382,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10422,7 +10439,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10479,7 +10496,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -10536,7 +10553,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -10593,7 +10610,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.4">
       <c r="N46" s="3" t="s">
         <v>32</v>
       </c>
@@ -10601,7 +10618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.4">
       <c r="N47" s="3" t="s">
         <v>93</v>
       </c>
@@ -10609,7 +10626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.4">
       <c r="N48" s="3" t="s">
         <v>32</v>
       </c>
@@ -10617,7 +10634,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.4">
       <c r="N49" s="3" t="s">
         <v>93</v>
       </c>
@@ -10625,377 +10642,377 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O50" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O51" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.4">
+    <row r="52" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O52" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O53" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.4">
+    <row r="54" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O54" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.4">
+    <row r="55" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O55" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.4">
+    <row r="56" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O56" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.4">
+    <row r="57" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O57" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.4">
+    <row r="58" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O58" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.4">
+    <row r="59" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O59" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.4">
+    <row r="60" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O60" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.4">
+    <row r="61" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O61" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.4">
+    <row r="62" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O62" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.4">
+    <row r="63" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O63" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.4">
+    <row r="64" spans="14:15" x14ac:dyDescent="0.4">
       <c r="O64" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.4">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O65" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.4">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.4">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O67" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.4">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O68" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.4">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O69" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.4">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O70" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.4">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O71" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.4">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O72" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.4">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O73" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.4">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O74" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.4">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O75" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.4">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.4">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O77" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.4">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O78" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.4">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O79" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.4">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O80" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.4">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O81" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82" x14ac:dyDescent="0.4">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O82" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" x14ac:dyDescent="0.4">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O83" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" x14ac:dyDescent="0.4">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O84" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" x14ac:dyDescent="0.4">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O85" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="86" x14ac:dyDescent="0.4">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O86" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="87" x14ac:dyDescent="0.4">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O87" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" x14ac:dyDescent="0.4">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O88" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" x14ac:dyDescent="0.4">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O89" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" x14ac:dyDescent="0.4">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O90" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="91" x14ac:dyDescent="0.4">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O91" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="92" x14ac:dyDescent="0.4">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O92" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" x14ac:dyDescent="0.4">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O93" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" x14ac:dyDescent="0.4">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O94" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" x14ac:dyDescent="0.4">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O95" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" x14ac:dyDescent="0.4">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O96" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97" x14ac:dyDescent="0.4">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O97" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" x14ac:dyDescent="0.4">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O98" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="99" x14ac:dyDescent="0.4">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O99" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="100" x14ac:dyDescent="0.4">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O100" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="101" x14ac:dyDescent="0.4">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O101" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" x14ac:dyDescent="0.4">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O102" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" x14ac:dyDescent="0.4">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O103" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" x14ac:dyDescent="0.4">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O104" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" x14ac:dyDescent="0.4">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O105" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" x14ac:dyDescent="0.4">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O106" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107" x14ac:dyDescent="0.4">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O107" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" x14ac:dyDescent="0.4">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O108" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" x14ac:dyDescent="0.4">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O109" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" x14ac:dyDescent="0.4">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O110" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" x14ac:dyDescent="0.4">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O111" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="112" x14ac:dyDescent="0.4">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O112" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" x14ac:dyDescent="0.4">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O113" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" x14ac:dyDescent="0.4">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O114" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" x14ac:dyDescent="0.4">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O115" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" x14ac:dyDescent="0.4">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O116" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" x14ac:dyDescent="0.4">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O117" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" x14ac:dyDescent="0.4">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O118" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="119" x14ac:dyDescent="0.4">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O119" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" x14ac:dyDescent="0.4">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O120" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121" x14ac:dyDescent="0.4">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O121" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="122" x14ac:dyDescent="0.4">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O122" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" x14ac:dyDescent="0.4">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O123" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="124" x14ac:dyDescent="0.4">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O124" s="3" t="s">
         <v>94</v>
       </c>
@@ -11010,21 +11027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E033184CEB11F648BBD0F70F1BE6A53E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6772e668bd11b5d68af2caf9f3d3ff0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a44a327f-4c77-4059-bb07-e278862d87fb" xmlns:ns4="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1370a7ae997dfead2b2ac8f1c36ed42" ns3:_="" ns4:_="">
     <xsd:import namespace="a44a327f-4c77-4059-bb07-e278862d87fb"/>
@@ -11247,32 +11249,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA715A9A-50E5-49B3-81AC-118F4B5A14E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1F3C90-AF98-43AB-B3C2-ECE16BFEAB58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a44a327f-4c77-4059-bb07-e278862d87fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BE07B4-EAD3-43BB-A412-78B98636CC41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11289,4 +11281,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA715A9A-50E5-49B3-81AC-118F4B5A14E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1F3C90-AF98-43AB-B3C2-ECE16BFEAB58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a44a327f-4c77-4059-bb07-e278862d87fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7fa3c9fb-ef78-47d6-a04f-8ab7fe78f626"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>